--- a/fault/media/example/Saadat10.7.xlsx
+++ b/fault/media/example/Saadat10.7.xlsx
@@ -985,7 +985,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/fault/media/example/Saadat10.7.xlsx
+++ b/fault/media/example/Saadat10.7.xlsx
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
